--- a/qus-sys/src/main/webapp/template/final_score.xlsx
+++ b/qus-sys/src/main/webapp/template/final_score.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" firstSheet="1" windowHeight="11000" windowWidth="23220"/>
   </bookViews>
   <sheets>
-    <sheet name="省公司试用期被考核人员" r:id="rId1" sheetId="1"/>
-    <sheet name="20200716210904215592671" r:id="rId2" sheetId="2"/>
-    <sheet name="20200716210904217424201" r:id="rId3" sheetId="3"/>
-    <sheet name="20200716210904217247797" r:id="rId4" sheetId="4"/>
-    <sheet name="20200716210904217588615" r:id="rId5" sheetId="5"/>
+    <sheet name="省公司部门正职" r:id="rId1" sheetId="1"/>
+    <sheet name="省公司部门副职、总监" r:id="rId2" sheetId="2"/>
+    <sheet name="地市公司正职" r:id="rId3" sheetId="3"/>
+    <sheet name="地市公司副职" r:id="rId4" sheetId="4"/>
+    <sheet name="地市分公司领导班子" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10070" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9966" uniqueCount="383">
   <si>
     <t>归属地市</t>
   </si>
@@ -1167,138 +1167,6 @@
   </si>
   <si>
     <t>13.50</t>
-  </si>
-  <si>
-    <t>归属单位</t>
-  </si>
-  <si>
-    <t>本部门正副职</t>
-  </si>
-  <si>
-    <t>能力考核与素质考核得分</t>
-  </si>
-  <si>
-    <t>省公司试用期被考核经理</t>
-  </si>
-  <si>
-    <t>陈可夫</t>
-  </si>
-  <si>
-    <t>34.13</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>罗榆</t>
-  </si>
-  <si>
-    <t>43.45</t>
-  </si>
-  <si>
-    <t>40.25</t>
-  </si>
-  <si>
-    <t>罗尚寅</t>
-  </si>
-  <si>
-    <t>41.58</t>
-  </si>
-  <si>
-    <t>38.83</t>
-  </si>
-  <si>
-    <t>洪建聪</t>
-  </si>
-  <si>
-    <t>42.78</t>
-  </si>
-  <si>
-    <t>39.25</t>
-  </si>
-  <si>
-    <t>林叶</t>
-  </si>
-  <si>
-    <t>43.50</t>
-  </si>
-  <si>
-    <t>39.65</t>
-  </si>
-  <si>
-    <t>胜任力考核得分</t>
-  </si>
-  <si>
-    <t>省公司试用期被考核人员</t>
-  </si>
-  <si>
-    <t>朱成利</t>
-  </si>
-  <si>
-    <t>49.66</t>
-  </si>
-  <si>
-    <t>34.25</t>
-  </si>
-  <si>
-    <t>张海平</t>
-  </si>
-  <si>
-    <t>47.83</t>
-  </si>
-  <si>
-    <t>45.75</t>
-  </si>
-  <si>
-    <t>黄盛</t>
-  </si>
-  <si>
-    <t>49.39</t>
-  </si>
-  <si>
-    <t>罗集超</t>
-  </si>
-  <si>
-    <t>46.78</t>
-  </si>
-  <si>
-    <t>47.25</t>
-  </si>
-  <si>
-    <t>兰小乐</t>
-  </si>
-  <si>
-    <t>47.39</t>
-  </si>
-  <si>
-    <t>47.32</t>
-  </si>
-  <si>
-    <t>46.55</t>
-  </si>
-  <si>
-    <t>47.06</t>
-  </si>
-  <si>
-    <t>46.80</t>
-  </si>
-  <si>
-    <t>47.51</t>
-  </si>
-  <si>
-    <t>47.04</t>
-  </si>
-  <si>
-    <t>47.13</t>
-  </si>
-  <si>
-    <t>46.30</t>
-  </si>
-  <si>
-    <t>46.97</t>
-  </si>
-  <si>
-    <t>47.66</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2115,7 @@
   <cols>
     <col min="5" max="5" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.8984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
@@ -2256,7 +2124,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2268,13 +2136,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G1" t="s">
-        <v>402</v>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -2282,22 +2165,34 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G2" t="n">
-        <v>83.91</v>
+        <v>241</v>
+      </c>
+      <c r="G2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.84</v>
       </c>
     </row>
     <row r="3">
@@ -2305,22 +2200,37 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" t="n">
-        <v>93.58</v>
+        <v>247</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" t="n">
+        <v>77.61</v>
       </c>
     </row>
     <row r="4">
@@ -2328,22 +2238,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G4" t="n">
-        <v>95.14</v>
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80.01</v>
       </c>
     </row>
     <row r="5">
@@ -2351,22 +2276,37 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" t="n">
-        <v>94.03</v>
+        <v>261</v>
+      </c>
+      <c r="G5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" t="n">
+        <v>86.38000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2374,22 +2314,37 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" t="n">
-        <v>93.14</v>
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L6" t="n">
+        <v>82.36</v>
       </c>
     </row>
     <row r="7">
@@ -2397,22 +2352,37 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G7" t="n">
-        <v>93.87</v>
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" t="n">
+        <v>81.11</v>
       </c>
     </row>
     <row r="8">
@@ -2420,91 +2390,37 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" t="n">
-        <v>93.86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" t="s">
-        <v>421</v>
-      </c>
-      <c r="F9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G9" t="n">
-        <v>94.55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D10" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" t="s">
-        <v>423</v>
-      </c>
-      <c r="F10" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" t="n">
-        <v>93.43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F11" t="s">
-        <v>426</v>
-      </c>
-      <c r="G11" t="n">
-        <v>94.63</v>
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" t="n">
+        <v>82.31</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2447,241 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="16.40234375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53.81999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K3" t="n">
+        <v>78.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="n">
+        <v>90.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" t="n">
+        <v>86.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" t="s">
+        <v>293</v>
+      </c>
+      <c r="J7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" t="n">
+        <v>85.27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -2557,7 +2707,324 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" t="n">
+        <v>74.72000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" t="n">
+        <v>52.519999999999996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J5" t="n">
+        <v>52.599999999999994</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50.699999999999996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" t="n">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" t="n">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>51.230000000000004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50.53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -2581,7 +3048,487 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63.910000000000004</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" t="n">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44.379999999999995</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45.410000000000004</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46.349999999999994</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45.39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" t="n">
+        <v>44.120000000000005</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I14" t="n">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" t="s">
+        <v>372</v>
+      </c>
+      <c r="I16" t="n">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" t="s">
+        <v>329</v>
+      </c>
+      <c r="I17" t="n">
+        <v>46.08</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -2602,7 +3549,280 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J2" t="n">
+        <v>94.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" t="n">
+        <v>49.459999999999994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50.489999999999995</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" t="n">
+        <v>45.449999999999996</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
